--- a/SIM&CALC/Phaser_Power_Pounder.xlsx
+++ b/SIM&CALC/Phaser_Power_Pounder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Pounder_Stabilizer_AFE\SIM&amp;CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DF18F-D647-4863-AA51-D7160DDCB237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CAF1D-C38B-4A45-9143-E1420A818EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>ERA-2SM+</t>
   </si>
   <si>
-    <t>ADA4625</t>
-  </si>
-  <si>
     <t>AD8363</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>MAR8A</t>
+  </si>
+  <si>
+    <t>THS4631</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D8080-B06B-45F2-A912-FF305F83A70D}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>22</v>
@@ -632,31 +632,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>80</v>
@@ -695,23 +695,23 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>120</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <f>185+145</f>
@@ -757,7 +757,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>35</v>
@@ -765,12 +765,12 @@
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="4">
         <v>7</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0.05</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O28">
         <v>0.05</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="L32" s="10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M32" s="10">
         <f t="shared" si="0"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="N32" s="10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="0"/>
@@ -994,12 +994,12 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10">
         <f>L32</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10">
         <f>N32</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="9"/>
@@ -1030,12 +1030,12 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9">
         <f>K32+K33</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9">
         <f>M32+M33</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9">
@@ -1069,11 +1069,11 @@
       </c>
       <c r="K35">
         <f>K34*12</f>
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="M35">
         <f>M34*12</f>
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="O35">
         <f>O34*12</f>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R35" s="6">
         <f>SUM(B35:Q35)</f>
-        <v>4474.5749999999998</v>
+        <v>4666.5749999999998</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="K37">
         <f>(1-K36)*K35</f>
-        <v>67.199999999999989</v>
+        <v>86.399999999999977</v>
       </c>
       <c r="M37">
         <f>(1-M36)*M35</f>
-        <v>67.199999999999989</v>
+        <v>86.399999999999977</v>
       </c>
       <c r="P37">
         <f>(1-P36)*P35</f>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="R37" s="8">
         <f>SUM(B37:Q37)</f>
-        <v>723.81104999999991</v>
+        <v>762.21104999999989</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
@@ -1169,31 +1169,31 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="R39">
         <f>R35+R37</f>
-        <v>5198.3860500000001</v>
+        <v>5428.7860499999997</v>
       </c>
     </row>
   </sheetData>

--- a/SIM&CALC/Phaser_Power_Pounder.xlsx
+++ b/SIM&CALC/Phaser_Power_Pounder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Pounder_Stabilizer_AFE\SIM&amp;CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CAF1D-C38B-4A45-9143-E1420A818EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6FC69-F2E3-45E0-A4B6-1D6ABF2D5513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Rail</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>L79L05ACUTR</t>
-  </si>
-  <si>
-    <t>LT1761ES5-BYP#TRMPBF</t>
   </si>
   <si>
     <t>TPS62148RGX</t>
@@ -602,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D8080-B06B-45F2-A912-FF305F83A70D}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:R39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>22</v>
@@ -632,31 +629,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -666,7 +663,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>80</v>
@@ -695,7 +692,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>28</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -730,6 +727,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+    </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
@@ -765,12 +770,12 @@
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -837,15 +842,15 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>0.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O28">
         <v>0.05</v>
@@ -934,11 +939,11 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" ref="H32:P32" si="0">SUM(H4:H31)</f>
-        <v>4.05</v>
+        <v>8</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="0"/>
@@ -988,7 +993,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10">
         <f>I32+J32</f>
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -1024,7 +1029,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9">
         <f>H32+H33</f>
-        <v>310.05</v>
+        <v>394</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1065,7 +1070,7 @@
       </c>
       <c r="H35">
         <f>H34*7.5</f>
-        <v>2325.375</v>
+        <v>2955</v>
       </c>
       <c r="K35">
         <f>K34*12</f>
@@ -1085,7 +1090,7 @@
       </c>
       <c r="R35" s="6">
         <f>SUM(B35:Q35)</f>
-        <v>4666.5749999999998</v>
+        <v>5296.2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -1130,7 +1135,7 @@
       </c>
       <c r="H37">
         <f>(1-H36)*H35</f>
-        <v>348.80625000000003</v>
+        <v>443.25000000000006</v>
       </c>
       <c r="K37">
         <f>(1-K36)*K35</f>
@@ -1146,7 +1151,7 @@
       </c>
       <c r="R37" s="8">
         <f>SUM(B37:Q37)</f>
-        <v>762.21104999999989</v>
+        <v>856.65479999999991</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1154,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
@@ -1169,31 +1174,31 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -1202,7 +1207,7 @@
       </c>
       <c r="R39">
         <f>R35+R37</f>
-        <v>5428.7860499999997</v>
+        <v>6152.8548000000001</v>
       </c>
     </row>
   </sheetData>
